--- a/xlsx/140冷排换扇.xlsx
+++ b/xlsx/140冷排换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_\Syncthing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D3CDB-059D-4954-8AA5-D181BC750D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1204EF-8614-45FD-9F4D-050E007AD6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10200" yWindow="6705" windowWidth="21600" windowHeight="11715" xr2:uid="{1AE1343D-633F-4BFB-85BD-E1B963419C9C}"/>
   </bookViews>
@@ -36,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>SWP4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>风尊T30-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢影14Pro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C84FE3B-A5EB-40AE-8A03-08695EEAA39D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +453,13 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>44</v>
       </c>
@@ -471,14 +480,24 @@
       <c r="F2">
         <v>1932</v>
       </c>
+      <c r="G2">
+        <v>43.5</v>
+      </c>
+      <c r="H2">
+        <f>74-21.31</f>
+        <v>52.69</v>
+      </c>
+      <c r="I2">
+        <v>1877</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>38</v>
       </c>
       <c r="B3">
-        <f>75.9-21.58</f>
-        <v>54.320000000000007</v>
+        <f>77-21.22</f>
+        <v>55.78</v>
       </c>
       <c r="C3">
         <v>1676</v>
@@ -493,11 +512,22 @@
       <c r="F3">
         <v>1493</v>
       </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <f>76.5-21.26</f>
+        <v>55.239999999999995</v>
+      </c>
+      <c r="I3">
+        <v>1385</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/140冷排换扇.xlsx
+++ b/xlsx/140冷排换扇.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,191 +424,257 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>9RA14038</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>LP14E</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>A14x25G2</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>T30-140</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>钢影14Pro</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>P14Pro</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>风尊T30-14</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>MACH140</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>SWP4</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>H14PE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>49.16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3731</v>
+      </c>
+      <c r="D2" t="n">
         <v>48.5</v>
       </c>
-      <c r="B2" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="F2" t="n">
         <v>2683</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>40.2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>53.88</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>1501</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>50.7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>50.92</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>2493</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>43.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>52.69</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>1877</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>47.8</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>51.73</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>2407</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>42.9</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>53.3</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>1932</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>48</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>51.59</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>2200</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>44</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>53.27000000000001</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>2250</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>51.36</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38</v>
+        <v>45.1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.38</v>
+        <v>50.95</v>
       </c>
       <c r="C3" t="n">
+        <v>2279</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53.08</v>
+      </c>
+      <c r="F3" t="n">
         <v>1647</v>
       </c>
-      <c r="D3" t="n">
-        <v>38</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>38</v>
+      </c>
+      <c r="H3" t="n">
         <v>55.27000000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>1307</v>
       </c>
-      <c r="G3" t="n">
-        <v>38</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+      <c r="K3" t="n">
         <v>54.28</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>1428</v>
       </c>
-      <c r="J3" t="n">
-        <v>38</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
+        <v>38</v>
+      </c>
+      <c r="N3" t="n">
         <v>55.23999999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>1385</v>
       </c>
-      <c r="M3" t="n">
-        <v>38</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="n">
         <v>55.00999999999999</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>1464</v>
       </c>
-      <c r="P3" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
+        <v>38</v>
+      </c>
+      <c r="T3" t="n">
         <v>55.59999999999999</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>1493</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>38.1</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>55.33000000000001</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>1383</v>
       </c>
-      <c r="V3" t="n">
-        <v>38</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="n">
         <v>55.78</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>1676</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B4" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>56.93</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
